--- a/src/test/resources/customer.xlsx
+++ b/src/test/resources/customer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -40,9 +40,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>5881 vista drive</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>city</t>
   </si>
   <si>
-    <t>west des moines</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -77,6 +71,15 @@
   </si>
   <si>
     <t>reference:address@id#1</t>
+  </si>
+  <si>
+    <t>street address2</t>
+  </si>
+  <si>
+    <t>street address1</t>
+  </si>
+  <si>
+    <t>New York</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -441,7 +444,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -450,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -458,13 +461,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -476,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,13 +492,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -504,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -512,19 +515,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>12345</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>50266</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -532,19 +535,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>54321</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>50556</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -564,13 +567,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/test/resources/customer.xlsx
+++ b/src/test/resources/customer.xlsx
@@ -55,31 +55,31 @@
     <t>customer1</t>
   </si>
   <si>
+    <t>homePhone</t>
+  </si>
+  <si>
+    <t>cellPhone</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>reference:phone@id#1</t>
+  </si>
+  <si>
+    <t>street address2</t>
+  </si>
+  <si>
+    <t>street address1</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
     <t>address</t>
   </si>
   <si>
-    <t>homePhone</t>
-  </si>
-  <si>
-    <t>cellPhone</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>reference:phone@id#1</t>
-  </si>
-  <si>
-    <t>reference:address@id#1</t>
-  </si>
-  <si>
-    <t>street address2</t>
-  </si>
-  <si>
-    <t>street address1</t>
-  </si>
-  <si>
-    <t>New York</t>
+    <t>listReference:address@id#1,address@id#2</t>
   </si>
 </sst>
 </file>
@@ -439,6 +439,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -453,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -467,7 +468,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -480,7 +481,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -515,10 +516,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>12345</v>
@@ -527,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -535,10 +536,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="D3">
         <v>54321</v>
@@ -547,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -570,10 +571,10 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/test/resources/customer.xlsx
+++ b/src/test/resources/customer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -80,6 +80,90 @@
   </si>
   <si>
     <t>listReference:address@id#1,address@id#2</t>
+  </si>
+  <si>
+    <t>street address3</t>
+  </si>
+  <si>
+    <t>reference:phone@id#2</t>
+  </si>
+  <si>
+    <t>street address4</t>
+  </si>
+  <si>
+    <t>reference:phone@id#3</t>
+  </si>
+  <si>
+    <t>street address5</t>
+  </si>
+  <si>
+    <t>reference:phone@id#4</t>
+  </si>
+  <si>
+    <t>street address6</t>
+  </si>
+  <si>
+    <t>reference:phone@id#5</t>
+  </si>
+  <si>
+    <t>street address7</t>
+  </si>
+  <si>
+    <t>reference:phone@id#6</t>
+  </si>
+  <si>
+    <t>listReference:address@id#1</t>
+  </si>
+  <si>
+    <t>listReference:address@id#2</t>
+  </si>
+  <si>
+    <t>listReference:address@id#3</t>
+  </si>
+  <si>
+    <t>listReference:address@id#4</t>
+  </si>
+  <si>
+    <t>listReference:address@id#5</t>
+  </si>
+  <si>
+    <t>customer2</t>
+  </si>
+  <si>
+    <t>customer3</t>
+  </si>
+  <si>
+    <t>customer4</t>
+  </si>
+  <si>
+    <t>customer5</t>
+  </si>
+  <si>
+    <t>customer6</t>
+  </si>
+  <si>
+    <t>customer7</t>
+  </si>
+  <si>
+    <t>New Hamisphere</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Des Moines</t>
+  </si>
+  <si>
+    <t>listReference:address@id#6,address@id#7</t>
   </si>
 </sst>
 </file>
@@ -431,16 +515,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -469,6 +553,90 @@
       </c>
       <c r="D2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -478,17 +646,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,7 +707,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>54321</v>
@@ -549,6 +717,106 @@
       </c>
       <c r="F3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>54322</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>54323</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>54324</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>54325</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>54326</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -558,13 +826,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -588,6 +860,61 @@
         <v>1515</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>123457</v>
+      </c>
+      <c r="C3">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>123458</v>
+      </c>
+      <c r="C4">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>123459</v>
+      </c>
+      <c r="C5">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>123460</v>
+      </c>
+      <c r="C6">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>123461</v>
+      </c>
+      <c r="C7">
+        <v>1520</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
